--- a/server/output.xlsx
+++ b/server/output.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
   <si>
     <t>EMSTF Resident Support &amp; Computer Operation Support Services Team Roster</t>
   </si>
   <si>
-    <t>February 2021</t>
+    <t>March 2021</t>
   </si>
   <si>
     <t>Approved by SSO(R)5:</t>
@@ -124,6 +124,66 @@
   </si>
   <si>
     <t>Vacant Shifts</t>
+  </si>
+  <si>
+    <t>a : 0800H - 1700H</t>
+  </si>
+  <si>
+    <t>SITO - Senior Information Technology Officer</t>
+  </si>
+  <si>
+    <t>b : 1630H - 2215H</t>
+  </si>
+  <si>
+    <t>ITO - Information Technology Officer</t>
+  </si>
+  <si>
+    <t>b1: 1500H - 2215H</t>
+  </si>
+  <si>
+    <t>c : 2145H - 0830H (the next day)</t>
+  </si>
+  <si>
+    <t>Distrubution List :</t>
+  </si>
+  <si>
+    <t>SSO(R)5</t>
+  </si>
+  <si>
+    <t>CSA(CS)</t>
+  </si>
+  <si>
+    <t>d : 0800H - 1800H (on weekdays)</t>
+  </si>
+  <si>
+    <t>SO(R)51</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>d1 : 0800H - 1700H (on weekdays)</t>
+  </si>
+  <si>
+    <t>SEO(R)51</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>d3 : 0800H - 1648H (on weekdays)</t>
+  </si>
+  <si>
+    <t>SEO(R)52</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>s : sick leave standby</t>
+  </si>
+  <si>
+    <t>O : dayoff</t>
   </si>
 </sst>
 </file>
@@ -133,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="+#0.##;-#0.##"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -154,6 +214,11 @@
     <font>
       <b/>
       <color rgb="FFFF0000"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -164,12 +229,38 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="46"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -198,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -231,15 +322,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
@@ -617,9 +720,15 @@
     <col min="35" max="35" width="8.25" customWidth="1"/>
     <col min="36" max="36" width="8.625" customWidth="1"/>
     <col min="37" max="37" width="7.875" customWidth="1"/>
+    <col min="38" max="38" width="9" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="9" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="9" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="9" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="9" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +805,7 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    <row r="3" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -749,18 +857,14 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -828,7 +932,7 @@
       <c r="L5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="7" t="s">
@@ -837,7 +941,7 @@
       <c r="O5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="9" t="s">
@@ -879,9 +983,15 @@
       <c r="AC5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
+      <c r="AD5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="AG5" s="10" t="s">
         <v>13</v>
       </c>
@@ -982,9 +1092,15 @@
       <c r="AC6" s="12">
         <v>28</v>
       </c>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="AD6" s="12">
+        <v>29</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>30</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>31</v>
+      </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10" t="s">
@@ -1019,112 +1135,113 @@
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG7" s="14">
+      <c r="T7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="15">
         <v>179.4</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="15">
         <f>(COUNTIF(B7:AF7,"a"))*9+(COUNTIF(B7:AF7,"b"))*5.75+(COUNTIF(B7:AF7,"c"))*10.75+(COUNTIF(B7:AF7,"d"))*9+(COUNTIF(B7:AF7,"d1"))*8+(COUNTIF(B7:AF7,"d2"))*8+(COUNTIF(B7:AF7,"d3"))*7.8+(COUNTIF(B7:AF7,"b1"))*7.25</f>
       </c>
-      <c r="AI7" s="15">
+      <c r="AI7" s="16">
         <v>5.55</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AJ7" s="15">
         <f>AH7-AG7</f>
-      </c>
-      <c r="AK7" s="14">
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="AK7" s="15">
         <f>AJ7+AI7</f>
       </c>
       <c r="AL7">
@@ -1150,112 +1267,113 @@
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="D8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="P8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="9" t="s">
+      <c r="S8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Z8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AA8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AA8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG8" s="14">
+      <c r="AC8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="15">
         <v>207</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AH8" s="15">
         <f>(COUNTIF(B8:AF8,"a"))*9+(COUNTIF(B8:AF8,"b"))*5.75+(COUNTIF(B8:AF8,"c"))*10.75+(COUNTIF(B8:AF8,"d"))*9+(COUNTIF(B8:AF8,"d1"))*8+(COUNTIF(B8:AF8,"d2"))*8+(COUNTIF(B8:AF8,"d3"))*7.8+(COUNTIF(B8:AF8,"b1"))*7.25</f>
       </c>
-      <c r="AI8" s="15">
+      <c r="AI8" s="16">
         <v>8.7</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AJ8" s="15">
         <f>AH8-AG8</f>
-      </c>
-      <c r="AK8" s="14">
+        <v>-18</v>
+      </c>
+      <c r="AK8" s="15">
         <f>AJ8+AI8</f>
       </c>
       <c r="AL8">
@@ -1281,112 +1399,113 @@
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="G9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="14">
+      <c r="M9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="15">
         <v>179.4</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="15">
         <f>(COUNTIF(B9:AF9,"a"))*9+(COUNTIF(B9:AF9,"b"))*5.75+(COUNTIF(B9:AF9,"c"))*10.75+(COUNTIF(B9:AF9,"d"))*9+(COUNTIF(B9:AF9,"d1"))*8+(COUNTIF(B9:AF9,"d2"))*8+(COUNTIF(B9:AF9,"d3"))*7.8+(COUNTIF(B9:AF9,"b1"))*7.25</f>
       </c>
-      <c r="AI9" s="15">
+      <c r="AI9" s="16">
         <v>9.3</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AJ9" s="15">
         <f>AH9-AG9</f>
-      </c>
-      <c r="AK9" s="14">
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="AK9" s="15">
         <f>AJ9+AI9</f>
       </c>
       <c r="AL9">
@@ -1412,112 +1531,113 @@
       <c r="A10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="9" t="s">
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG10" s="14">
+      <c r="S10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="15">
         <v>179.4</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AH10" s="15">
         <f>(COUNTIF(B10:AF10,"a"))*9+(COUNTIF(B10:AF10,"b"))*5.75+(COUNTIF(B10:AF10,"c"))*10.75+(COUNTIF(B10:AF10,"d"))*9+(COUNTIF(B10:AF10,"d1"))*8+(COUNTIF(B10:AF10,"d2"))*8+(COUNTIF(B10:AF10,"d3"))*7.8+(COUNTIF(B10:AF10,"b1"))*7.25</f>
       </c>
-      <c r="AI10" s="15">
+      <c r="AI10" s="16">
         <v>1.43</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AJ10" s="15">
         <f>AH10-AG10</f>
-      </c>
-      <c r="AK10" s="14">
+        <v>-9.400000000000006</v>
+      </c>
+      <c r="AK10" s="15">
         <f>AJ10+AI10</f>
       </c>
       <c r="AL10">
@@ -1543,112 +1663,113 @@
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="9" t="s">
+      <c r="M11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG11" s="14">
+      <c r="S11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG11" s="15">
         <v>179.4</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AH11" s="15">
         <f>(COUNTIF(B11:AF11,"a"))*9+(COUNTIF(B11:AF11,"b"))*5.75+(COUNTIF(B11:AF11,"c"))*10.75+(COUNTIF(B11:AF11,"d"))*9+(COUNTIF(B11:AF11,"d1"))*8+(COUNTIF(B11:AF11,"d2"))*8+(COUNTIF(B11:AF11,"d3"))*7.8+(COUNTIF(B11:AF11,"b1"))*7.25</f>
       </c>
-      <c r="AI11" s="15">
+      <c r="AI11" s="16">
         <v>4.55</v>
       </c>
-      <c r="AJ11" s="14">
+      <c r="AJ11" s="15">
         <f>AH11-AG11</f>
-      </c>
-      <c r="AK11" s="14">
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="AK11" s="15">
         <f>AJ11+AI11</f>
       </c>
       <c r="AL11">
@@ -1670,13 +1791,196 @@
         <f>SUM(AL11:AP11)</f>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="S12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="S13" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="S14" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="S16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="X17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="X18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="X19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
     <mergeCell ref="B1:AF1"/>
     <mergeCell ref="B2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -1685,6 +1989,15 @@
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:AF11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/server/output.xlsx
+++ b/server/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="57">
   <si>
     <t>EMSTF Resident Support &amp; Computer Operation Support Services Team Roster</t>
   </si>
@@ -92,13 +92,114 @@
   </si>
   <si>
     <t>No. of working day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSANG Ka Shing Gary
+ITO1 Extn. 2458</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNG Kin Shing Tommy
+ITO3 Extn. 2458</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUEN Kwai-leung Andrew
+ITO4 Extn. 2458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LI Chi-wai Joseph
+ITO6 Extn. 2458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAN Tai-hin Jimmy
+ITO8 Extn. 2458</t>
+  </si>
+  <si>
+    <t>Vacant Shifts</t>
+  </si>
+  <si>
+    <t>a : 0800H - 1700H</t>
+  </si>
+  <si>
+    <t>SITO - Senior Information Technology Officer</t>
+  </si>
+  <si>
+    <t>b : 1630H - 2215H</t>
+  </si>
+  <si>
+    <t>ITO - Information Technology Officer</t>
+  </si>
+  <si>
+    <t>b1: 1500H - 2215H</t>
+  </si>
+  <si>
+    <t>c : 2145H - 0830H (the next day)</t>
+  </si>
+  <si>
+    <t>Distrubution List :</t>
+  </si>
+  <si>
+    <t>SSO(R)5</t>
+  </si>
+  <si>
+    <t>CSA(CS)</t>
+  </si>
+  <si>
+    <t>d : 0800H - 1800H (on weekdays)</t>
+  </si>
+  <si>
+    <t>SO(R)51</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>d1 : 0800H - 1700H (on weekdays)</t>
+  </si>
+  <si>
+    <t>SEO(R)51</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>d2 : 0900H - 1800H (on weekdays)</t>
+  </si>
+  <si>
+    <t>SEO(R)52</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>d3 : 0800H - 1648H (on weekdays)</t>
+  </si>
+  <si>
+    <t>s : sick leave standby</t>
+  </si>
+  <si>
+    <t>O : dayoff</t>
+  </si>
+  <si>
+    <t>* Staff in former IT structure of EMSTF, the working hours be 45 hours per week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="+#0.##;-#0.##"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -122,13 +223,59 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <color indexed="53"/>
+      <family val="1"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="46"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -157,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,11 +328,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -520,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
@@ -901,8 +1102,906 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>179.4</v>
+      </c>
+      <c r="AH7" s="13">
+        <f>(COUNTIF(B7:AF7,"a"))*9+(COUNTIF(B7:AF7,"b"))*5.75+(COUNTIF(B7:AF7,"b1"))*7.25+(COUNTIF(B7:AF7,"c"))*10.75+(COUNTIF(B7:AF7,"d"))*9+(COUNTIF(B7:AF7,"d1"))*8+(COUNTIF(B7:AF7,"d2"))*8+(COUNTIF(B7:AF7,"d3"))*7.8</f>
+      </c>
+      <c r="AI7" s="14">
+        <v>5.55</v>
+      </c>
+      <c r="AJ7" s="13">
+        <f>AH7-AG7</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="AK7" s="13">
+        <f>AJ7+AI7</f>
+      </c>
+      <c r="AL7">
+        <f>(COUNTIF(B7:AF7,"a"))</f>
+      </c>
+      <c r="AM7">
+        <f>(COUNTIF(B7:AF7,"b"))+(COUNTIF(B7:AF7,"b1"))</f>
+      </c>
+      <c r="AN7">
+        <f>(COUNTIF(B7:AF7,"c"))</f>
+      </c>
+      <c r="AO7">
+        <f>(COUNTIF(B7:AF7,"d"))+(COUNTIF(B7:AF7,"d1"))+(COUNTIF(B7:AF7,"d2"))+(COUNTIF(B7:AF7,"d3"))</f>
+      </c>
+      <c r="AP7">
+        <f>(COUNTIF(B7:AF7,"O"))</f>
+      </c>
+      <c r="AQ7">
+        <f>SUM(AL7:AP7)</f>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>207</v>
+      </c>
+      <c r="AH8" s="13">
+        <f>(COUNTIF(B8:AF8,"a"))*9+(COUNTIF(B8:AF8,"b"))*5.75+(COUNTIF(B8:AF8,"b1"))*7.25+(COUNTIF(B8:AF8,"c"))*10.75+(COUNTIF(B8:AF8,"d"))*9+(COUNTIF(B8:AF8,"d1"))*8+(COUNTIF(B8:AF8,"d2"))*8+(COUNTIF(B8:AF8,"d3"))*7.8</f>
+      </c>
+      <c r="AI8" s="14">
+        <v>8.7</v>
+      </c>
+      <c r="AJ8" s="13">
+        <f>AH8-AG8</f>
+        <v>-18</v>
+      </c>
+      <c r="AK8" s="13">
+        <f>AJ8+AI8</f>
+      </c>
+      <c r="AL8">
+        <f>(COUNTIF(B8:AF8,"a"))</f>
+      </c>
+      <c r="AM8">
+        <f>(COUNTIF(B8:AF8,"b"))+(COUNTIF(B8:AF8,"b1"))</f>
+      </c>
+      <c r="AN8">
+        <f>(COUNTIF(B8:AF8,"c"))</f>
+      </c>
+      <c r="AO8">
+        <f>(COUNTIF(B8:AF8,"d"))+(COUNTIF(B8:AF8,"d1"))+(COUNTIF(B8:AF8,"d2"))+(COUNTIF(B8:AF8,"d3"))</f>
+      </c>
+      <c r="AP8">
+        <f>(COUNTIF(B8:AF8,"O"))</f>
+      </c>
+      <c r="AQ8">
+        <f>SUM(AL8:AP8)</f>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>179.4</v>
+      </c>
+      <c r="AH9" s="13">
+        <f>(COUNTIF(B9:AF9,"a"))*9+(COUNTIF(B9:AF9,"b"))*5.75+(COUNTIF(B9:AF9,"b1"))*7.25+(COUNTIF(B9:AF9,"c"))*10.75+(COUNTIF(B9:AF9,"d"))*9+(COUNTIF(B9:AF9,"d1"))*8+(COUNTIF(B9:AF9,"d2"))*8+(COUNTIF(B9:AF9,"d3"))*7.8</f>
+      </c>
+      <c r="AI9" s="14">
+        <v>9.3</v>
+      </c>
+      <c r="AJ9" s="13">
+        <f>AH9-AG9</f>
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="AK9" s="13">
+        <f>AJ9+AI9</f>
+      </c>
+      <c r="AL9">
+        <f>(COUNTIF(B9:AF9,"a"))</f>
+      </c>
+      <c r="AM9">
+        <f>(COUNTIF(B9:AF9,"b"))+(COUNTIF(B9:AF9,"b1"))</f>
+      </c>
+      <c r="AN9">
+        <f>(COUNTIF(B9:AF9,"c"))</f>
+      </c>
+      <c r="AO9">
+        <f>(COUNTIF(B9:AF9,"d"))+(COUNTIF(B9:AF9,"d1"))+(COUNTIF(B9:AF9,"d2"))+(COUNTIF(B9:AF9,"d3"))</f>
+      </c>
+      <c r="AP9">
+        <f>(COUNTIF(B9:AF9,"O"))</f>
+      </c>
+      <c r="AQ9">
+        <f>SUM(AL9:AP9)</f>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>179.4</v>
+      </c>
+      <c r="AH10" s="13">
+        <f>(COUNTIF(B10:AF10,"a"))*9+(COUNTIF(B10:AF10,"b"))*5.75+(COUNTIF(B10:AF10,"b1"))*7.25+(COUNTIF(B10:AF10,"c"))*10.75+(COUNTIF(B10:AF10,"d"))*9+(COUNTIF(B10:AF10,"d1"))*8+(COUNTIF(B10:AF10,"d2"))*8+(COUNTIF(B10:AF10,"d3"))*7.8</f>
+      </c>
+      <c r="AI10" s="14">
+        <v>1.43</v>
+      </c>
+      <c r="AJ10" s="13">
+        <f>AH10-AG10</f>
+        <v>-9.400000000000006</v>
+      </c>
+      <c r="AK10" s="13">
+        <f>AJ10+AI10</f>
+      </c>
+      <c r="AL10">
+        <f>(COUNTIF(B10:AF10,"a"))</f>
+      </c>
+      <c r="AM10">
+        <f>(COUNTIF(B10:AF10,"b"))+(COUNTIF(B10:AF10,"b1"))</f>
+      </c>
+      <c r="AN10">
+        <f>(COUNTIF(B10:AF10,"c"))</f>
+      </c>
+      <c r="AO10">
+        <f>(COUNTIF(B10:AF10,"d"))+(COUNTIF(B10:AF10,"d1"))+(COUNTIF(B10:AF10,"d2"))+(COUNTIF(B10:AF10,"d3"))</f>
+      </c>
+      <c r="AP10">
+        <f>(COUNTIF(B10:AF10,"O"))</f>
+      </c>
+      <c r="AQ10">
+        <f>SUM(AL10:AP10)</f>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>179.4</v>
+      </c>
+      <c r="AH11" s="13">
+        <f>(COUNTIF(B11:AF11,"a"))*9+(COUNTIF(B11:AF11,"b"))*5.75+(COUNTIF(B11:AF11,"b1"))*7.25+(COUNTIF(B11:AF11,"c"))*10.75+(COUNTIF(B11:AF11,"d"))*9+(COUNTIF(B11:AF11,"d1"))*8+(COUNTIF(B11:AF11,"d2"))*8+(COUNTIF(B11:AF11,"d3"))*7.8</f>
+      </c>
+      <c r="AI11" s="14">
+        <v>4.55</v>
+      </c>
+      <c r="AJ11" s="13">
+        <f>AH11-AG11</f>
+        <v>-11.400000000000006</v>
+      </c>
+      <c r="AK11" s="13">
+        <f>AJ11+AI11</f>
+      </c>
+      <c r="AL11">
+        <f>(COUNTIF(B11:AF11,"a"))</f>
+      </c>
+      <c r="AM11">
+        <f>(COUNTIF(B11:AF11,"b"))+(COUNTIF(B11:AF11,"b1"))</f>
+      </c>
+      <c r="AN11">
+        <f>(COUNTIF(B11:AF11,"c"))</f>
+      </c>
+      <c r="AO11">
+        <f>(COUNTIF(B11:AF11,"d"))+(COUNTIF(B11:AF11,"d1"))+(COUNTIF(B11:AF11,"d2"))+(COUNTIF(B11:AF11,"d3"))</f>
+      </c>
+      <c r="AP11">
+        <f>(COUNTIF(B11:AF11,"O"))</f>
+      </c>
+      <c r="AQ11">
+        <f>SUM(AL11:AP11)</f>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="S13" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="S14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="S16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="X17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="X18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="X19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
     <mergeCell ref="B1:AF1"/>
     <mergeCell ref="B2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -911,7 +2010,31 @@
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
   </mergeCells>
+  <conditionalFormatting sqref="B7:AF11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"c"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(SEARCH("b",B7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4">
+      <formula>NOT(ISERROR(SEARCH("d",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
